--- a/biology/Médecine/Virus_de_l'hépatite_B/Virus_de_l'hépatite_B.xlsx
+++ b/biology/Médecine/Virus_de_l'hépatite_B/Virus_de_l'hépatite_B.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Virus_de_l%27h%C3%A9patite_B</t>
+          <t>Virus_de_l'hépatite_B</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus de l'hépatite B ou VHB (en anglais, Hepatitis B virus ou HBV) est un virus qui provoque l'hépatite B chez l'humain.
 Ce virus appartient au groupe taxinomique VII du règne des Virus, à la famille des Hepadnaviridae et au genre Orthohepadnavirus. La famille des hépadnavirus (Hepadnaviridae) regroupe les virus dont le génome est constitué d'ADN double brin, qui possèdent une activité de rétrotranscription et qui causent des infections du foie chez les humains et certains animaux. Chaque virus est spécifique d'une espèce mais il peut infecter des animaux phylogénétiquement proches. C'est le cas du VHB qui est spécifiquement humain, mais qui peut infecter certains autres primates.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Virus_de_l%27h%C3%A9patite_B</t>
+          <t>Virus_de_l'hépatite_B</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La particule virale (ou particule de Dane) ou HBc est sphérique et mesure 42-47 nm de diamètre. Le génome est contenu dans une nucléocapside icosaédrique de 22-25 nm de diamètre enveloppée par une bicouche lipidique associée à des protéines de surface.
-Son enveloppe porte notamment l’antigène de surface HBs, ou protéine HBsAg, tandis que sa partie plus centrale, porteuse de la charge virale, porte l'antigène HBc[1].
+Son enveloppe porte notamment l’antigène de surface HBs, ou protéine HBsAg, tandis que sa partie plus centrale, porteuse de la charge virale, porte l'antigène HBc.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Virus_de_l%27h%C3%A9patite_B</t>
+          <t>Virus_de_l'hépatite_B</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Génome</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le génome est formé d’ADN circulaire (3200 nucléotides) partiellement double brin (sur les deux tiers de sa longueur).
 Le virus possède un brin long (L-) d’une longueur de 3,2 kb fixe entre les différents mutants, et un brin court (S+) de longueur variable, de 50 à 100 % de celle du brin L-.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Virus_de_l%27h%C3%A9patite_B</t>
+          <t>Virus_de_l'hépatite_B</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +599,54 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Variabilité
-Il existe différents sous-types du VHB définis par une variabilité dans les épitopes de l'antigène HBs, due à une hétérogénéité du génome viral. On distingue ainsi huit souches du VHB, nommées de A à H. Certaines de ces souches sont surtout présentes dans certaines régions du Globe :
+          <t>Variabilité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Il existe différents sous-types du VHB définis par une variabilité dans les épitopes de l'antigène HBs, due à une hétérogénéité du génome viral. On distingue ainsi huit souches du VHB, nommées de A à H. Certaines de ces souches sont surtout présentes dans certaines régions du Globe :
 souche A : en Europe de l'Ouest ;
 souches B et C : en Asie ;
 souches D et E : dans le bassin méditerranéen ;
-souche H : en Amérique centrale.
-Évolution
-La paléovirologie montre que des virus endogènes appartenant à la famille des Hepadnaviridae (à laquelle appartient le VHB) s'étaient intégrés dans le génome d'un groupe de passereaux il y a plus de 19 millions d'années. On ne sait pas encore, en revanche, si le VHB ou un virus proche circule encore aujourd'hui chez les passereaux[2].
-En 2021, une étude de l'ADN viral préservé dans 137 squelettes humains vieux de 10 500 à 400 ans éclaire l'évolution du virus chez l'humain[3],[4] :
+souche H : en Amérique centrale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Virus_de_l'hépatite_B</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Virus_de_l%27h%C3%A9patite_B</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Variabilité et évolution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Évolution</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La paléovirologie montre que des virus endogènes appartenant à la famille des Hepadnaviridae (à laquelle appartient le VHB) s'étaient intégrés dans le génome d'un groupe de passereaux il y a plus de 19 millions d'années. On ne sait pas encore, en revanche, si le VHB ou un virus proche circule encore aujourd'hui chez les passereaux.
+En 2021, une étude de l'ADN viral préservé dans 137 squelettes humains vieux de 10 500 à 400 ans éclaire l'évolution du virus chez l'humain, :
 le dernier ancêtre commun à l'ensemble des variants connus date de 20 000 à 12 000 ans, donc de la dernière période glaciaire et bien après la sortie d'Afrique des humains modernes ;
 vers 12 000 ans (début de l'Holocène), le virus se sépare en deux lignées, la branche amérindienne et la branche eurasienne. La branche amérindienne évolue ensuite, conduisant aux actuelles souches F et H ;
 en Eurasie, l'évolution du virus est complexe, liée notamment aux grandes migrations humaines. Vers 6 000 ans, une souche nommée WENBA remplace les souches mésolithiques, puis elle se fait elle-même supplanter, vers 2 000 ans et rapidement, par les actuelles souches A et D, plus virulentes (à la suite de la perte d'un fragment d'ADN, affectant une protéine de surface) ;
@@ -599,44 +654,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Virus_de_l%27h%C3%A9patite_B</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Virus_de_l%27h%C3%A9patite_B</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Tropisme</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le VHB cible les hépatocytes et certaines cellules extra-hépatiques comme les cellules mononucléées du sang.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Virus_de_l%27h%C3%A9patite_B</t>
+          <t>Virus_de_l'hépatite_B</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,12 +675,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Tropisme</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le VHB cible les hépatocytes et certaines cellules extra-hépatiques comme les cellules mononucléées du sang.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Virus_de_l'hépatite_B</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Virus_de_l%27h%C3%A9patite_B</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Cycle de réplication</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le virion reconnaît et s’attache à l’hépatocyte via le récepteur NTCP[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le virion reconnaît et s’attache à l’hépatocyte via le récepteur NTCP.
 Fusion entre l’enveloppe virale et la paroi cellulaire, libération de la nucléocapside dans le cytoplasme.
 Translocation de la nucléocapside vers le noyau grâce à des signaux de localisation nucléaire portés par l’antigène HBc. Pénétration de l’ADN du VHB dans le noyau.
 Par un mécanisme encore mal connu, l’ADN asymétrique ouvert dans la particule, devient double brin circulaire fermé de façon covalente dans le noyau. On parle alors d’ADNccc (Covalently Closed Circular DNA). L’ADNccc s’associe à des histones cellulaires pour former un « mini chromosome », l’ADN est à ce moment superenroulé. Un ARN prégénomique est transcrit par une ARN polymérase II cellulaire à partir du brin L- de cet ADN superenroulé.
@@ -674,31 +733,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Virus_de_l%27h%C3%A9patite_B</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Virus_de_l'hépatite_B</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Virus_de_l%27h%C3%A9patite_B</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Dynamique de la production virale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La production quotidienne du VHB est de l’ordre de 1011 particules, comparée à 109 pour le VIH ou le VHC. La demi-vie du VHB est de 1 à 3 jours. Le niveau de production in vivo élevé du VHB et l’absence de système de correction dans l’ADN polymérase virale influencent la production de variants pouvant échapper au diagnostic et/ou aux traitements.
 </t>
